--- a/docs/2025-10-30-Participium-UserStories.xlsx
+++ b/docs/2025-10-30-Participium-UserStories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\_UNI\POLITO\esami\Software Engineering II\progetto\PROJ\SoftEng2_group2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D0F0E-F6A8-4773-ACDD-56CCC189E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA3EA1C-DC7A-435D-9870-8AB8109DE7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,21 +422,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -455,6 +452,9 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -517,16 +517,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A36D48C-6FF6-4AC4-A559-67A643E08A09}" name="Tabella1" displayName="Tabella1" ref="A2:G28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A36D48C-6FF6-4AC4-A559-67A643E08A09}" name="Tabella1" displayName="Tabella1" ref="A2:G28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:G28" xr:uid="{1A36D48C-6FF6-4AC4-A559-67A643E08A09}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7F07B2D5-9D1A-46FB-8D4C-157D07CA01EC}" name="Issue-id" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{63F202C3-E82C-40D5-A3A8-0900457E9FBE}" name="Type" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B9174579-6C9E-4E36-964C-D64ED7A31D25}" name="Business Value" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{825D044D-6A2C-4419-85DA-50DDA0113ED4}" name="Description" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1AABA7B5-4584-49AF-BB89-7CB0D47AF1D0}" name="Comments (check also system textual description)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{871B7F82-AE4A-4E5F-BC77-59D6C7130D1D}" name="Poker estimation" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{6293AC2F-EB56-4F19-9F07-379305967EF2}" name="notes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7F07B2D5-9D1A-46FB-8D4C-157D07CA01EC}" name="Issue-id" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{63F202C3-E82C-40D5-A3A8-0900457E9FBE}" name="Type" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B9174579-6C9E-4E36-964C-D64ED7A31D25}" name="Business Value" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{825D044D-6A2C-4419-85DA-50DDA0113ED4}" name="Description" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1AABA7B5-4584-49AF-BB89-7CB0D47AF1D0}" name="Comments (check also system textual description)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{871B7F82-AE4A-4E5F-BC77-59D6C7130D1D}" name="Poker estimation" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{6293AC2F-EB56-4F19-9F07-379305967EF2}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -838,13 +838,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
@@ -862,10 +862,10 @@
       <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="93.6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="117" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="93.6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="117" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
